--- a/src/test/resources/dersler.xlsx
+++ b/src/test/resources/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakup\IdeaProjects\CanvasDataProvider\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96ACBB52-A2B7-46C2-8243-3DA53D68A05A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9892442-8E5C-424E-9B2F-261E4CFC35FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dersler" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>OGRENCI ISIMLERI</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>YavuzOzturk</t>
+  </si>
+  <si>
+    <t>NazikjemalMuradova</t>
+  </si>
+  <si>
+    <t>MunevverGuncavdi</t>
+  </si>
+  <si>
+    <t>RehanAhmed</t>
+  </si>
+  <si>
+    <t>SumantaSamadder</t>
+  </si>
+  <si>
+    <t>CagdasOlmez</t>
+  </si>
+  <si>
+    <t>CahitErdemAkcay</t>
+  </si>
+  <si>
+    <t>EnesSatin</t>
+  </si>
+  <si>
+    <t>BirgulUstuner</t>
+  </si>
+  <si>
+    <t>BusraKeban</t>
+  </si>
+  <si>
+    <t>MelikeBalci</t>
+  </si>
+  <si>
+    <t>BelchinAydogan</t>
+  </si>
+  <si>
+    <t>FuatAri</t>
+  </si>
+  <si>
+    <t>OzlemBahadir</t>
   </si>
 </sst>
 </file>
@@ -482,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -752,10 +791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F5B986-3321-4B2E-889F-6A710B214606}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +809,72 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dersler.xlsx
+++ b/src/test/resources/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakup\IdeaProjects\CanvasDataProvider\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9892442-8E5C-424E-9B2F-261E4CFC35FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1CE335-E2D2-4A63-9E00-BD5D827CE319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dersler" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>OGRENCI ISIMLERI</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>OzlemBahadir</t>
+  </si>
+  <si>
+    <t>https://learn.cybertekschool.com/courses/616/pages/recording-myfirstprogram-from-eclipse-%7C-print-and-println-%7C-comments?module_item_id=34744</t>
+  </si>
+  <si>
+    <t>https://learn.cybertekschool.com/courses/616/pages/recording-variable-%7C-datatypes?module_item_id=34749</t>
   </si>
 </sst>
 </file>
@@ -519,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,14 +544,18 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -563,20 +573,28 @@
       <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{FB245203-67DA-4CB7-86A2-2ECA6FA4583A}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{FB245203-67DA-4CB7-86A2-2ECA6FA4583A}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{DD5F6726-695E-467C-B1CD-CC112652EC73}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{322FFABD-0E06-41CB-ADA6-60668DE20AFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -793,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F5B986-3321-4B2E-889F-6A710B214606}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/dersler.xlsx
+++ b/src/test/resources/dersler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakup\IdeaProjects\CanvasDataProvider\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1CE335-E2D2-4A63-9E00-BD5D827CE319}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C5C33C-1B24-4BE7-9DB5-DD270E4FA258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
-  <si>
-    <t>OGRENCI ISIMLERI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Kocar</t>
   </si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>Yucedal</t>
-  </si>
-  <si>
-    <t>DERS ADRESLERINI ASAGIYA YAPISTIR</t>
   </si>
   <si>
     <t>Kunduz</t>
@@ -525,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,24 +532,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>6</v>
+      <c r="A1" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -576,22 +568,19 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{FB245203-67DA-4CB7-86A2-2ECA6FA4583A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{DD5F6726-695E-467C-B1CD-CC112652EC73}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{322FFABD-0E06-41CB-ADA6-60668DE20AFC}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{FB245203-67DA-4CB7-86A2-2ECA6FA4583A}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{DD5F6726-695E-467C-B1CD-CC112652EC73}"/>
+    <hyperlink ref="A1" r:id="rId3" xr:uid="{322FFABD-0E06-41CB-ADA6-60668DE20AFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -600,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495E6E38-CD37-4D89-AB03-5BD5566E9E21}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,37 +602,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -664,11 +653,6 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -678,9 +662,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6EC093-0CA7-4691-9294-A6B52D851FFE}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -689,117 +675,112 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -809,10 +790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F5B986-3321-4B2E-889F-6A710B214606}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,77 +803,72 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/dersler.xlsx
+++ b/src/test/resources/dersler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakup\IdeaProjects\CanvasDataProvider\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED792D-0618-4CB5-8E20-CFE5E278BFA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A008C0-FBB0-46FD-A836-BD29A952FE47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="715" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EU7-Recordings" sheetId="14" r:id="rId1"/>
@@ -6253,11 +6253,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA372980-2B65-4389-BC25-94251DA09B10}">
   <dimension ref="A1:JV42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10125,13 +10125,13 @@
     <mergeCell ref="A30:A42"/>
   </mergeCells>
   <conditionalFormatting sqref="D4:GG42">
-    <cfRule type="containsBlanks" dxfId="86" priority="1">
+    <cfRule type="containsBlanks" dxfId="86" priority="4">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10148,7 +10148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB4C609-6313-431D-BA49-2CE8F7FCAA18}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -34212,7 +34212,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Y1000"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64759,8 +64759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5A2D1E-A6E8-4170-AFA4-ADDD715F2914}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
